--- a/API Files/Acuity Research/Theme Relation.xlsx
+++ b/API Files/Acuity Research/Theme Relation.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3FB4C748-9355-43EF-900F-0B5242E47700}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Theme Relation" r:id="rId1" sheetId="1"/>
+    <sheet name="Theme Relation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="295">
   <si>
     <t>Theme NSAdmin Record01</t>
   </si>
@@ -905,25 +904,12 @@
   </si>
   <si>
     <t>navpeII__Contact__c&lt;break&gt;Contact</t>
-  </si>
-  <si>
-    <t>Theme__ NAdminrmdmin Record NAdminrmr</t>
-  </si>
-  <si>
-    <t>Theme__Fim NSAdminon NSAdmin ReFim NSAdminonr</t>
-  </si>
-  <si>
-    <t>Theme__Yfrm NSAdminarm NSAdmin RYfrm NSAdminarr</t>
-  </si>
-  <si>
-    <t>Theme__Nsdminmin Record0Nsdminr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,98 +1344,98 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1466,10 +1452,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1504,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,7 +1525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1633,21 +1619,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1664,7 +1650,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1716,27 +1702,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I460"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="74.28515625" collapsed="true"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -1762,10 +1748,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>292</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1773,10 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>292</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1784,10 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>292</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1795,10 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>292</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1806,10 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>292</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1817,10 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>292</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1828,10 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>292</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1839,10 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>292</v>
-      </c>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1850,10 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>292</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1861,10 +1820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>292</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1872,10 +1828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>292</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1883,10 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>292</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1894,10 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>292</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1905,10 +1852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>292</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1916,10 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>292</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1927,10 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>292</v>
-      </c>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -1938,10 +1876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>292</v>
-      </c>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -1949,10 +1884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>292</v>
-      </c>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -1960,10 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>292</v>
-      </c>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1971,10 +1900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>292</v>
-      </c>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1982,10 +1908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>292</v>
-      </c>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -1993,10 +1916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>292</v>
-      </c>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -2004,10 +1924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>292</v>
-      </c>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -2015,10 +1932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>292</v>
-      </c>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -2026,10 +1940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>292</v>
-      </c>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -2037,10 +1948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>292</v>
-      </c>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -2048,10 +1956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>292</v>
-      </c>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -2059,10 +1964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>292</v>
-      </c>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -2070,10 +1972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>292</v>
-      </c>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -2081,10 +1980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>292</v>
-      </c>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -2092,10 +1988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>292</v>
-      </c>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -2103,10 +1996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>292</v>
-      </c>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -2114,10 +2004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>292</v>
-      </c>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -2125,10 +2012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>292</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -2136,10 +2020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>292</v>
-      </c>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2147,10 +2028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>292</v>
-      </c>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -2158,10 +2036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>292</v>
-      </c>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -2169,10 +2044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>292</v>
-      </c>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -2180,10 +2052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>292</v>
-      </c>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2191,10 +2060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>292</v>
-      </c>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -2202,10 +2068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>292</v>
-      </c>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -2213,10 +2076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>292</v>
-      </c>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -2224,10 +2084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>292</v>
-      </c>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -2235,10 +2092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>292</v>
-      </c>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -2246,10 +2100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>292</v>
-      </c>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -2257,10 +2108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>292</v>
-      </c>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -2268,10 +2116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>292</v>
-      </c>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -2279,10 +2124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>292</v>
-      </c>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -2290,10 +2132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>292</v>
-      </c>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -2301,10 +2140,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>292</v>
-      </c>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2312,10 +2148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>292</v>
-      </c>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -2323,10 +2156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>292</v>
-      </c>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -2334,10 +2164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>292</v>
-      </c>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -2345,10 +2172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>292</v>
-      </c>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -2356,10 +2180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>292</v>
-      </c>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -2367,10 +2188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>292</v>
-      </c>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -2378,10 +2196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>292</v>
-      </c>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -2389,10 +2204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>292</v>
-      </c>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -2400,10 +2212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>292</v>
-      </c>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -2411,10 +2220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>292</v>
-      </c>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -2422,10 +2228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>292</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -2433,10 +2236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>292</v>
-      </c>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -2444,10 +2244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>292</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -2455,10 +2252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>292</v>
-      </c>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -2466,10 +2260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>292</v>
-      </c>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -2477,10 +2268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>292</v>
-      </c>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -2488,10 +2276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>292</v>
-      </c>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -2499,10 +2284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>292</v>
-      </c>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -2510,10 +2292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>292</v>
-      </c>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -2521,10 +2300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>292</v>
-      </c>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -2532,10 +2308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>292</v>
-      </c>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -2543,10 +2316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>292</v>
-      </c>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -2554,10 +2324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>292</v>
-      </c>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -2565,10 +2332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>292</v>
-      </c>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -2576,10 +2340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>292</v>
-      </c>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -2587,10 +2348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>292</v>
-      </c>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>0</v>
       </c>
@@ -2598,10 +2356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>292</v>
-      </c>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -2609,10 +2364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>292</v>
-      </c>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -2620,10 +2372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>292</v>
-      </c>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -2631,10 +2380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>292</v>
-      </c>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -2642,10 +2388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>292</v>
-      </c>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -2653,10 +2396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>292</v>
-      </c>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -2664,10 +2404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>292</v>
-      </c>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -2675,10 +2412,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>292</v>
-      </c>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -2686,10 +2420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>292</v>
-      </c>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -2697,10 +2428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>292</v>
-      </c>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -2708,10 +2436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>292</v>
-      </c>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -2719,10 +2444,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>292</v>
-      </c>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -2730,10 +2452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>292</v>
-      </c>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -2741,10 +2460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>292</v>
-      </c>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -2752,10 +2468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>292</v>
-      </c>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -2763,10 +2476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>292</v>
-      </c>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -2774,10 +2484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>292</v>
-      </c>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -2785,10 +2492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>292</v>
-      </c>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>0</v>
       </c>
@@ -2796,10 +2500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>292</v>
-      </c>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -2807,10 +2508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>292</v>
-      </c>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -2818,10 +2516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>292</v>
-      </c>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>0</v>
       </c>
@@ -2829,10 +2524,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>292</v>
-      </c>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>0</v>
       </c>
@@ -2840,10 +2532,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>292</v>
-      </c>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>0</v>
       </c>
@@ -2851,10 +2540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>292</v>
-      </c>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -2862,10 +2548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>292</v>
-      </c>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -2873,10 +2556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>292</v>
-      </c>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -2884,10 +2564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>292</v>
-      </c>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>0</v>
       </c>
@@ -2895,10 +2572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>292</v>
-      </c>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>0</v>
       </c>
@@ -2906,10 +2580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>292</v>
-      </c>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -2917,10 +2588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>292</v>
-      </c>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -2928,10 +2596,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>292</v>
-      </c>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -2939,10 +2604,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>292</v>
-      </c>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>0</v>
       </c>
@@ -2950,10 +2612,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>292</v>
-      </c>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>0</v>
       </c>
@@ -2961,10 +2620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>292</v>
-      </c>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -2972,10 +2628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>292</v>
-      </c>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>0</v>
       </c>
@@ -2983,10 +2636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>292</v>
-      </c>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -2994,10 +2644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>292</v>
-      </c>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>0</v>
       </c>
@@ -3005,10 +2652,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>292</v>
-      </c>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>0</v>
       </c>
@@ -3016,10 +2660,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>292</v>
-      </c>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>0</v>
       </c>
@@ -3027,10 +2668,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>292</v>
-      </c>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -3038,10 +2676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>292</v>
-      </c>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>0</v>
       </c>
@@ -3049,10 +2684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>292</v>
-      </c>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>0</v>
       </c>
@@ -3060,10 +2692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>292</v>
-      </c>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>0</v>
       </c>
@@ -3071,10 +2700,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>292</v>
-      </c>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>0</v>
       </c>
@@ -3082,10 +2708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>292</v>
-      </c>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>0</v>
       </c>
@@ -3093,10 +2716,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>292</v>
-      </c>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>0</v>
       </c>
@@ -3104,10 +2724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>292</v>
-      </c>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>0</v>
       </c>
@@ -3115,10 +2732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>292</v>
-      </c>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -3126,10 +2740,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>292</v>
-      </c>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>0</v>
       </c>
@@ -3137,10 +2748,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>292</v>
-      </c>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>0</v>
       </c>
@@ -3148,10 +2756,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>292</v>
-      </c>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -3159,10 +2764,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>292</v>
-      </c>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>0</v>
       </c>
@@ -3170,10 +2772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>292</v>
-      </c>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>0</v>
       </c>
@@ -3181,10 +2780,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>292</v>
-      </c>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>0</v>
       </c>
@@ -3192,10 +2788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>292</v>
-      </c>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>0</v>
       </c>
@@ -3203,90 +2796,57 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>292</v>
-      </c>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>292</v>
-      </c>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>292</v>
-      </c>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>292</v>
-      </c>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>292</v>
-      </c>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>292</v>
-      </c>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>292</v>
-      </c>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>292</v>
-      </c>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>292</v>
-      </c>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>292</v>
-      </c>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>292</v>
-      </c>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>121</v>
       </c>
@@ -3294,10 +2854,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>292</v>
-      </c>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>121</v>
       </c>
@@ -3305,10 +2862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>292</v>
-      </c>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>121</v>
       </c>
@@ -3316,10 +2870,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>292</v>
-      </c>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>121</v>
       </c>
@@ -3327,10 +2878,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>292</v>
-      </c>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>121</v>
       </c>
@@ -3338,10 +2886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>292</v>
-      </c>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>121</v>
       </c>
@@ -3349,10 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>292</v>
-      </c>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>121</v>
       </c>
@@ -3360,10 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>292</v>
-      </c>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>121</v>
       </c>
@@ -3371,10 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>292</v>
-      </c>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>121</v>
       </c>
@@ -3382,10 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>292</v>
-      </c>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>121</v>
       </c>
@@ -3393,10 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>292</v>
-      </c>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>121</v>
       </c>
@@ -3404,10 +2934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>292</v>
-      </c>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>121</v>
       </c>
@@ -3415,10 +2942,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>292</v>
-      </c>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>121</v>
       </c>
@@ -3426,10 +2950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>292</v>
-      </c>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>121</v>
       </c>
@@ -3437,10 +2958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>292</v>
-      </c>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>121</v>
       </c>
@@ -3448,10 +2966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>292</v>
-      </c>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>121</v>
       </c>
@@ -3459,10 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>292</v>
-      </c>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>121</v>
       </c>
@@ -3470,10 +2982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>292</v>
-      </c>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>121</v>
       </c>
@@ -3481,10 +2990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>292</v>
-      </c>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>121</v>
       </c>
@@ -3492,10 +2998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>292</v>
-      </c>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>121</v>
       </c>
@@ -3503,10 +3006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>292</v>
-      </c>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>121</v>
       </c>
@@ -3514,10 +3014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>292</v>
-      </c>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>121</v>
       </c>
@@ -3525,10 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>292</v>
-      </c>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>121</v>
       </c>
@@ -3536,10 +3030,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>292</v>
-      </c>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>121</v>
       </c>
@@ -3547,10 +3038,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>292</v>
-      </c>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>121</v>
       </c>
@@ -3558,10 +3046,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>292</v>
-      </c>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>121</v>
       </c>
@@ -3569,10 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>292</v>
-      </c>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>121</v>
       </c>
@@ -3580,10 +3062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>292</v>
-      </c>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>121</v>
       </c>
@@ -3591,10 +3070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>292</v>
-      </c>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>121</v>
       </c>
@@ -3602,10 +3078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>292</v>
-      </c>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>121</v>
       </c>
@@ -3613,10 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>292</v>
-      </c>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>121</v>
       </c>
@@ -3624,10 +3094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>292</v>
-      </c>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>121</v>
       </c>
@@ -3635,10 +3102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>292</v>
-      </c>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>121</v>
       </c>
@@ -3646,10 +3110,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>292</v>
-      </c>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>121</v>
       </c>
@@ -3657,10 +3118,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>292</v>
-      </c>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>121</v>
       </c>
@@ -3668,10 +3126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>292</v>
-      </c>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>121</v>
       </c>
@@ -3679,10 +3134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>292</v>
-      </c>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>121</v>
       </c>
@@ -3690,10 +3142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>292</v>
-      </c>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>121</v>
       </c>
@@ -3701,10 +3150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>292</v>
-      </c>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>121</v>
       </c>
@@ -3712,10 +3158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>292</v>
-      </c>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>121</v>
       </c>
@@ -3723,10 +3166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>292</v>
-      </c>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>121</v>
       </c>
@@ -3734,10 +3174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>292</v>
-      </c>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>121</v>
       </c>
@@ -3745,10 +3182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>292</v>
-      </c>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>121</v>
       </c>
@@ -3756,10 +3190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>292</v>
-      </c>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>121</v>
       </c>
@@ -3767,10 +3198,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>292</v>
-      </c>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>121</v>
       </c>
@@ -3778,10 +3206,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>292</v>
-      </c>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>121</v>
       </c>
@@ -3789,10 +3214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>292</v>
-      </c>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>121</v>
       </c>
@@ -3800,10 +3222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>292</v>
-      </c>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>121</v>
       </c>
@@ -3811,10 +3230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>292</v>
-      </c>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>121</v>
       </c>
@@ -3822,10 +3238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>292</v>
-      </c>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>121</v>
       </c>
@@ -3833,10 +3246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>292</v>
-      </c>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>121</v>
       </c>
@@ -3844,10 +3254,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>292</v>
-      </c>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>121</v>
       </c>
@@ -3855,10 +3262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>292</v>
-      </c>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>121</v>
       </c>
@@ -3866,10 +3270,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>292</v>
-      </c>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>121</v>
       </c>
@@ -3877,10 +3278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>292</v>
-      </c>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>121</v>
       </c>
@@ -3888,10 +3286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>292</v>
-      </c>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>121</v>
       </c>
@@ -3899,10 +3294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>292</v>
-      </c>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>121</v>
       </c>
@@ -3910,10 +3302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>292</v>
-      </c>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>121</v>
       </c>
@@ -3921,10 +3310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>292</v>
-      </c>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>121</v>
       </c>
@@ -3932,10 +3318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>292</v>
-      </c>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>121</v>
       </c>
@@ -3943,10 +3326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>292</v>
-      </c>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>121</v>
       </c>
@@ -3954,10 +3334,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>292</v>
-      </c>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>121</v>
       </c>
@@ -3965,10 +3342,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>292</v>
-      </c>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>121</v>
       </c>
@@ -3976,10 +3350,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>292</v>
-      </c>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>121</v>
       </c>
@@ -3987,10 +3358,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>292</v>
-      </c>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>121</v>
       </c>
@@ -3998,10 +3366,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>292</v>
-      </c>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>121</v>
       </c>
@@ -4009,10 +3374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>292</v>
-      </c>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>121</v>
       </c>
@@ -4020,10 +3382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>292</v>
-      </c>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>121</v>
       </c>
@@ -4031,10 +3390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>292</v>
-      </c>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>121</v>
       </c>
@@ -4042,10 +3398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>292</v>
-      </c>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>121</v>
       </c>
@@ -4053,7 +3406,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>292</v>
+      </c>
       <c r="B213" t="s">
         <v>166</v>
       </c>
@@ -4061,7 +3417,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>292</v>
+      </c>
       <c r="B214" t="s">
         <v>166</v>
       </c>
@@ -4069,7 +3428,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>292</v>
+      </c>
       <c r="B215" t="s">
         <v>166</v>
       </c>
@@ -4077,7 +3439,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>292</v>
+      </c>
       <c r="B216" t="s">
         <v>166</v>
       </c>
@@ -4085,7 +3450,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>292</v>
+      </c>
       <c r="B217" t="s">
         <v>166</v>
       </c>
@@ -4093,7 +3461,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>292</v>
+      </c>
       <c r="B218" t="s">
         <v>166</v>
       </c>
@@ -4101,7 +3472,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>292</v>
+      </c>
       <c r="B219" t="s">
         <v>166</v>
       </c>
@@ -4109,7 +3483,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>292</v>
+      </c>
       <c r="B220" t="s">
         <v>166</v>
       </c>
@@ -4117,7 +3494,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>292</v>
+      </c>
       <c r="B221" t="s">
         <v>166</v>
       </c>
@@ -4125,7 +3505,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>292</v>
+      </c>
       <c r="B222" t="s">
         <v>166</v>
       </c>
@@ -4133,7 +3516,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>292</v>
+      </c>
       <c r="B223" t="s">
         <v>166</v>
       </c>
@@ -4141,7 +3527,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>292</v>
+      </c>
       <c r="B224" t="s">
         <v>166</v>
       </c>
@@ -4149,7 +3538,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>292</v>
+      </c>
       <c r="B225" t="s">
         <v>166</v>
       </c>
@@ -4157,7 +3549,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>292</v>
+      </c>
       <c r="B226" t="s">
         <v>166</v>
       </c>
@@ -4165,7 +3560,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>292</v>
+      </c>
       <c r="B227" t="s">
         <v>166</v>
       </c>
@@ -4173,7 +3571,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>292</v>
+      </c>
       <c r="B228" t="s">
         <v>166</v>
       </c>
@@ -4181,7 +3582,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>292</v>
+      </c>
       <c r="B229" t="s">
         <v>166</v>
       </c>
@@ -4189,7 +3593,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>292</v>
+      </c>
       <c r="B230" t="s">
         <v>166</v>
       </c>
@@ -4197,7 +3604,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>292</v>
+      </c>
       <c r="B231" t="s">
         <v>166</v>
       </c>
@@ -4205,7 +3615,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>292</v>
+      </c>
       <c r="B232" t="s">
         <v>166</v>
       </c>
@@ -4213,7 +3626,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>292</v>
+      </c>
       <c r="B233" t="s">
         <v>166</v>
       </c>
@@ -4221,7 +3637,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>292</v>
+      </c>
       <c r="B234" t="s">
         <v>166</v>
       </c>
@@ -4229,7 +3648,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>292</v>
+      </c>
       <c r="B235" t="s">
         <v>166</v>
       </c>
@@ -4237,7 +3659,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>292</v>
+      </c>
       <c r="B236" t="s">
         <v>166</v>
       </c>
@@ -4245,7 +3670,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>292</v>
+      </c>
       <c r="B237" t="s">
         <v>166</v>
       </c>
@@ -4253,7 +3681,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>292</v>
+      </c>
       <c r="B238" t="s">
         <v>166</v>
       </c>
@@ -4261,7 +3692,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>292</v>
+      </c>
       <c r="B239" t="s">
         <v>166</v>
       </c>
@@ -4269,7 +3703,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>292</v>
+      </c>
       <c r="B240" t="s">
         <v>166</v>
       </c>
@@ -4277,7 +3714,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>292</v>
+      </c>
       <c r="B241" t="s">
         <v>166</v>
       </c>
@@ -4285,7 +3725,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>292</v>
+      </c>
       <c r="B242" t="s">
         <v>166</v>
       </c>
@@ -4293,7 +3736,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>292</v>
+      </c>
       <c r="B243" t="s">
         <v>166</v>
       </c>
@@ -4301,7 +3747,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>292</v>
+      </c>
       <c r="B244" t="s">
         <v>166</v>
       </c>
@@ -4309,7 +3758,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>292</v>
+      </c>
       <c r="B245" t="s">
         <v>166</v>
       </c>
@@ -4317,7 +3769,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>292</v>
+      </c>
       <c r="B246" t="s">
         <v>166</v>
       </c>
@@ -4325,7 +3780,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>292</v>
+      </c>
       <c r="B247" t="s">
         <v>166</v>
       </c>
@@ -4333,7 +3791,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>292</v>
+      </c>
       <c r="B248" t="s">
         <v>166</v>
       </c>
@@ -4341,7 +3802,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>292</v>
+      </c>
       <c r="B249" t="s">
         <v>166</v>
       </c>
@@ -4349,7 +3813,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>292</v>
+      </c>
       <c r="B250" t="s">
         <v>166</v>
       </c>
@@ -4357,7 +3824,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>292</v>
+      </c>
       <c r="B251" t="s">
         <v>166</v>
       </c>
@@ -4365,7 +3835,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>292</v>
+      </c>
       <c r="B252" t="s">
         <v>166</v>
       </c>
@@ -4373,7 +3846,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>292</v>
+      </c>
       <c r="B253" t="s">
         <v>166</v>
       </c>
@@ -4381,7 +3857,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>292</v>
+      </c>
       <c r="B254" t="s">
         <v>166</v>
       </c>
@@ -4389,7 +3868,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>292</v>
+      </c>
       <c r="B255" t="s">
         <v>166</v>
       </c>
@@ -4397,7 +3879,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>292</v>
+      </c>
       <c r="B256" t="s">
         <v>166</v>
       </c>
@@ -4405,7 +3890,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>292</v>
+      </c>
       <c r="B257" t="s">
         <v>166</v>
       </c>
@@ -4413,7 +3901,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>292</v>
+      </c>
       <c r="B258" t="s">
         <v>166</v>
       </c>
@@ -4421,7 +3912,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>292</v>
+      </c>
       <c r="B259" t="s">
         <v>166</v>
       </c>
@@ -4429,7 +3923,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>292</v>
+      </c>
       <c r="B260" t="s">
         <v>166</v>
       </c>
@@ -4437,7 +3934,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>292</v>
+      </c>
       <c r="B261" t="s">
         <v>166</v>
       </c>
@@ -4445,7 +3945,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>292</v>
+      </c>
       <c r="B262" t="s">
         <v>166</v>
       </c>
@@ -4453,7 +3956,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>292</v>
+      </c>
       <c r="B263" t="s">
         <v>166</v>
       </c>
@@ -4461,7 +3967,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>292</v>
+      </c>
       <c r="B264" t="s">
         <v>166</v>
       </c>
@@ -4469,7 +3978,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>292</v>
+      </c>
       <c r="B265" t="s">
         <v>166</v>
       </c>
@@ -4477,7 +3989,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>292</v>
+      </c>
       <c r="B266" t="s">
         <v>166</v>
       </c>
@@ -4485,7 +4000,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>292</v>
+      </c>
       <c r="B267" t="s">
         <v>166</v>
       </c>
@@ -4493,7 +4011,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>292</v>
+      </c>
       <c r="B268" t="s">
         <v>166</v>
       </c>
@@ -4501,7 +4022,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>292</v>
+      </c>
       <c r="B269" t="s">
         <v>166</v>
       </c>
@@ -4509,7 +4033,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>292</v>
+      </c>
       <c r="B270" t="s">
         <v>166</v>
       </c>
@@ -4517,7 +4044,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>292</v>
+      </c>
       <c r="B271" t="s">
         <v>166</v>
       </c>
@@ -4525,7 +4055,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>292</v>
+      </c>
       <c r="B272" t="s">
         <v>166</v>
       </c>
@@ -4533,7 +4066,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>292</v>
+      </c>
       <c r="B273" t="s">
         <v>166</v>
       </c>
@@ -4541,7 +4077,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>292</v>
+      </c>
       <c r="B274" t="s">
         <v>166</v>
       </c>
@@ -4549,7 +4088,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>292</v>
+      </c>
       <c r="B275" t="s">
         <v>166</v>
       </c>
@@ -4557,7 +4099,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>292</v>
+      </c>
       <c r="B276" t="s">
         <v>166</v>
       </c>
@@ -4565,7 +4110,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>292</v>
+      </c>
       <c r="B277" t="s">
         <v>166</v>
       </c>
@@ -4573,7 +4121,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>292</v>
+      </c>
       <c r="B278" t="s">
         <v>166</v>
       </c>
@@ -4581,7 +4132,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>292</v>
+      </c>
       <c r="B279" t="s">
         <v>166</v>
       </c>
@@ -4589,7 +4143,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>292</v>
+      </c>
       <c r="B280" t="s">
         <v>166</v>
       </c>
@@ -4597,7 +4154,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>292</v>
+      </c>
       <c r="B281" t="s">
         <v>166</v>
       </c>
@@ -4605,7 +4165,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>292</v>
+      </c>
       <c r="B282" t="s">
         <v>166</v>
       </c>
@@ -4613,7 +4176,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>292</v>
+      </c>
       <c r="B283" t="s">
         <v>166</v>
       </c>
@@ -4621,7 +4187,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
       <c r="B284" t="s">
         <v>166</v>
       </c>
@@ -4629,7 +4198,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>292</v>
+      </c>
       <c r="B285" t="s">
         <v>166</v>
       </c>
@@ -4637,7 +4209,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
       <c r="B286" t="s">
         <v>166</v>
       </c>
@@ -4645,7 +4220,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>292</v>
+      </c>
       <c r="B287" t="s">
         <v>166</v>
       </c>
@@ -4653,7 +4231,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>292</v>
+      </c>
       <c r="B288" t="s">
         <v>166</v>
       </c>
@@ -4661,7 +4242,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
       <c r="B289" t="s">
         <v>166</v>
       </c>
@@ -4669,7 +4253,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
       <c r="B290" t="s">
         <v>166</v>
       </c>
@@ -4677,7 +4264,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
       <c r="B291" t="s">
         <v>166</v>
       </c>
@@ -4685,7 +4275,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
       <c r="B292" t="s">
         <v>166</v>
       </c>
@@ -4693,7 +4286,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
       <c r="B293" t="s">
         <v>166</v>
       </c>
@@ -4701,7 +4297,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>292</v>
+      </c>
       <c r="B294" t="s">
         <v>166</v>
       </c>
@@ -4709,7 +4308,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>292</v>
+      </c>
       <c r="B295" t="s">
         <v>166</v>
       </c>
@@ -4717,7 +4319,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>292</v>
+      </c>
       <c r="B296" t="s">
         <v>166</v>
       </c>
@@ -4725,7 +4330,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>292</v>
+      </c>
       <c r="B297" t="s">
         <v>166</v>
       </c>
@@ -4733,7 +4341,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>292</v>
+      </c>
       <c r="B298" t="s">
         <v>166</v>
       </c>
@@ -4741,7 +4352,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>292</v>
+      </c>
       <c r="B299" t="s">
         <v>166</v>
       </c>
@@ -4749,7 +4363,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>292</v>
+      </c>
       <c r="B300" t="s">
         <v>166</v>
       </c>
@@ -4757,7 +4374,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>292</v>
+      </c>
       <c r="B301" t="s">
         <v>166</v>
       </c>
@@ -4765,7 +4385,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>292</v>
+      </c>
       <c r="B302" t="s">
         <v>166</v>
       </c>
@@ -4773,7 +4396,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>292</v>
+      </c>
       <c r="B303" t="s">
         <v>166</v>
       </c>
@@ -4781,7 +4407,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>292</v>
+      </c>
       <c r="B304" t="s">
         <v>166</v>
       </c>
@@ -4789,7 +4418,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>292</v>
+      </c>
       <c r="B305" t="s">
         <v>166</v>
       </c>
@@ -4797,7 +4429,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>292</v>
+      </c>
       <c r="B306" t="s">
         <v>166</v>
       </c>
@@ -4805,7 +4440,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>292</v>
+      </c>
       <c r="B307" t="s">
         <v>166</v>
       </c>
@@ -4813,7 +4451,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>292</v>
+      </c>
       <c r="B308" t="s">
         <v>166</v>
       </c>
@@ -4821,7 +4462,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>292</v>
+      </c>
       <c r="B309" t="s">
         <v>166</v>
       </c>
@@ -4829,7 +4473,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>292</v>
+      </c>
       <c r="B310" t="s">
         <v>166</v>
       </c>
@@ -4837,7 +4484,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>292</v>
+      </c>
       <c r="B311" t="s">
         <v>166</v>
       </c>
@@ -4845,7 +4495,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>292</v>
+      </c>
       <c r="B312" t="s">
         <v>166</v>
       </c>
@@ -4853,7 +4506,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>292</v>
+      </c>
       <c r="B313" t="s">
         <v>166</v>
       </c>
@@ -4861,7 +4517,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>292</v>
+      </c>
       <c r="B314" t="s">
         <v>166</v>
       </c>
@@ -4869,7 +4528,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>292</v>
+      </c>
       <c r="B315" t="s">
         <v>166</v>
       </c>
@@ -4877,7 +4539,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>292</v>
+      </c>
       <c r="B316" t="s">
         <v>166</v>
       </c>
@@ -4885,7 +4550,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>292</v>
+      </c>
       <c r="B317" t="s">
         <v>166</v>
       </c>
@@ -4893,7 +4561,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>292</v>
+      </c>
       <c r="B318" t="s">
         <v>166</v>
       </c>
@@ -4901,7 +4572,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>292</v>
+      </c>
       <c r="B319" t="s">
         <v>166</v>
       </c>
@@ -4909,7 +4583,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>292</v>
+      </c>
       <c r="B320" t="s">
         <v>166</v>
       </c>
@@ -4917,7 +4594,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>292</v>
+      </c>
       <c r="B321" t="s">
         <v>166</v>
       </c>
@@ -4925,7 +4605,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>292</v>
+      </c>
       <c r="B322" t="s">
         <v>166</v>
       </c>
@@ -4933,7 +4616,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>292</v>
+      </c>
       <c r="B323" t="s">
         <v>166</v>
       </c>
@@ -4941,7 +4627,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>292</v>
+      </c>
       <c r="B324" t="s">
         <v>166</v>
       </c>
@@ -4949,7 +4638,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>292</v>
+      </c>
       <c r="B325" t="s">
         <v>166</v>
       </c>
@@ -4957,7 +4649,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>292</v>
+      </c>
       <c r="B326" t="s">
         <v>166</v>
       </c>
@@ -4965,7 +4660,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>292</v>
+      </c>
       <c r="B327" t="s">
         <v>166</v>
       </c>
@@ -4973,7 +4671,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>292</v>
+      </c>
       <c r="B328" t="s">
         <v>166</v>
       </c>
@@ -4981,7 +4682,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>292</v>
+      </c>
       <c r="B329" t="s">
         <v>166</v>
       </c>
@@ -4989,7 +4693,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>292</v>
+      </c>
       <c r="B330" t="s">
         <v>166</v>
       </c>
@@ -4997,37 +4704,58 @@
         <v>284</v>
       </c>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>292</v>
+      </c>
       <c r="B331" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>292</v>
+      </c>
       <c r="B332" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>292</v>
+      </c>
       <c r="B333" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>292</v>
+      </c>
       <c r="B334" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>292</v>
+      </c>
       <c r="B335" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>292</v>
+      </c>
       <c r="B336" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>292</v>
+      </c>
       <c r="B337" t="s">
         <v>279</v>
       </c>
@@ -5035,7 +4763,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>292</v>
+      </c>
       <c r="B338" t="s">
         <v>279</v>
       </c>
@@ -5043,7 +4774,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>292</v>
+      </c>
       <c r="B339" t="s">
         <v>279</v>
       </c>
@@ -5051,7 +4785,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>292</v>
+      </c>
       <c r="B340" t="s">
         <v>279</v>
       </c>
@@ -5059,7 +4796,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>292</v>
+      </c>
       <c r="B341" t="s">
         <v>279</v>
       </c>
@@ -5067,7 +4807,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>292</v>
+      </c>
       <c r="B342" t="s">
         <v>279</v>
       </c>
@@ -5075,7 +4818,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>292</v>
+      </c>
       <c r="B343" t="s">
         <v>279</v>
       </c>
@@ -5083,7 +4829,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>292</v>
+      </c>
       <c r="B344" t="s">
         <v>279</v>
       </c>
@@ -5091,7 +4840,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>292</v>
+      </c>
       <c r="B345" t="s">
         <v>279</v>
       </c>
@@ -5099,7 +4851,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>292</v>
+      </c>
       <c r="B346" t="s">
         <v>279</v>
       </c>
@@ -5107,7 +4862,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>292</v>
+      </c>
       <c r="B347" t="s">
         <v>279</v>
       </c>
@@ -5115,7 +4873,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>292</v>
+      </c>
       <c r="B348" t="s">
         <v>279</v>
       </c>
@@ -5123,7 +4884,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>292</v>
+      </c>
       <c r="B349" t="s">
         <v>279</v>
       </c>
@@ -5131,7 +4895,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>292</v>
+      </c>
       <c r="B350" t="s">
         <v>279</v>
       </c>
@@ -5139,7 +4906,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>292</v>
+      </c>
       <c r="B351" t="s">
         <v>279</v>
       </c>
@@ -5147,7 +4917,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>292</v>
+      </c>
       <c r="B352" t="s">
         <v>279</v>
       </c>
@@ -5155,7 +4928,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>292</v>
+      </c>
       <c r="B353" t="s">
         <v>279</v>
       </c>
@@ -5163,7 +4939,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>292</v>
+      </c>
       <c r="B354" t="s">
         <v>279</v>
       </c>
@@ -5171,7 +4950,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>292</v>
+      </c>
       <c r="B355" t="s">
         <v>279</v>
       </c>
@@ -5179,7 +4961,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>292</v>
+      </c>
       <c r="B356" t="s">
         <v>279</v>
       </c>
@@ -5187,7 +4972,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>292</v>
+      </c>
       <c r="B357" t="s">
         <v>279</v>
       </c>
@@ -5195,7 +4983,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>292</v>
+      </c>
       <c r="B358" t="s">
         <v>279</v>
       </c>
@@ -5203,7 +4994,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>292</v>
+      </c>
       <c r="B359" t="s">
         <v>279</v>
       </c>
@@ -5211,7 +5005,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>292</v>
+      </c>
       <c r="B360" t="s">
         <v>279</v>
       </c>
@@ -5219,7 +5016,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>292</v>
+      </c>
       <c r="B361" t="s">
         <v>279</v>
       </c>
@@ -5227,7 +5027,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>292</v>
+      </c>
       <c r="B362" t="s">
         <v>279</v>
       </c>
@@ -5235,7 +5038,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>292</v>
+      </c>
       <c r="B363" t="s">
         <v>279</v>
       </c>
@@ -5243,7 +5049,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>292</v>
+      </c>
       <c r="B364" t="s">
         <v>279</v>
       </c>
@@ -5251,7 +5060,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>292</v>
+      </c>
       <c r="B365" t="s">
         <v>279</v>
       </c>
@@ -5259,7 +5071,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>292</v>
+      </c>
       <c r="B366" t="s">
         <v>279</v>
       </c>
@@ -5267,7 +5082,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>292</v>
+      </c>
       <c r="B367" t="s">
         <v>279</v>
       </c>
@@ -5275,7 +5093,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>292</v>
+      </c>
       <c r="B368" t="s">
         <v>279</v>
       </c>
@@ -5283,7 +5104,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>292</v>
+      </c>
       <c r="B369" t="s">
         <v>279</v>
       </c>
@@ -5291,7 +5115,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>292</v>
+      </c>
       <c r="B370" t="s">
         <v>279</v>
       </c>
@@ -5299,7 +5126,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>292</v>
+      </c>
       <c r="B371" t="s">
         <v>279</v>
       </c>
@@ -5307,7 +5137,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>292</v>
+      </c>
       <c r="B372" t="s">
         <v>279</v>
       </c>
@@ -5315,7 +5148,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>292</v>
+      </c>
       <c r="B373" t="s">
         <v>279</v>
       </c>
@@ -5323,7 +5159,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>292</v>
+      </c>
       <c r="B374" t="s">
         <v>279</v>
       </c>
@@ -5331,7 +5170,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>292</v>
+      </c>
       <c r="B375" t="s">
         <v>279</v>
       </c>
@@ -5339,7 +5181,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>292</v>
+      </c>
       <c r="B376" t="s">
         <v>279</v>
       </c>
@@ -5347,7 +5192,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>292</v>
+      </c>
       <c r="B377" t="s">
         <v>279</v>
       </c>
@@ -5355,7 +5203,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>292</v>
+      </c>
       <c r="B378" t="s">
         <v>279</v>
       </c>
@@ -5363,7 +5214,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>292</v>
+      </c>
       <c r="B379" t="s">
         <v>279</v>
       </c>
@@ -5371,7 +5225,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>292</v>
+      </c>
       <c r="B380" t="s">
         <v>279</v>
       </c>
@@ -5379,7 +5236,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>292</v>
+      </c>
       <c r="B381" t="s">
         <v>279</v>
       </c>
@@ -5387,7 +5247,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>292</v>
+      </c>
       <c r="B382" t="s">
         <v>279</v>
       </c>
@@ -5395,7 +5258,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>292</v>
+      </c>
       <c r="B383" t="s">
         <v>279</v>
       </c>
@@ -5403,7 +5269,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>292</v>
+      </c>
       <c r="B384" t="s">
         <v>279</v>
       </c>
@@ -5411,7 +5280,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>292</v>
+      </c>
       <c r="B385" t="s">
         <v>279</v>
       </c>
@@ -5419,7 +5291,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>292</v>
+      </c>
       <c r="B386" t="s">
         <v>279</v>
       </c>
@@ -5427,7 +5302,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>292</v>
+      </c>
       <c r="B387" t="s">
         <v>279</v>
       </c>
@@ -5435,7 +5313,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>292</v>
+      </c>
       <c r="B388" t="s">
         <v>279</v>
       </c>
@@ -5443,7 +5324,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>292</v>
+      </c>
       <c r="B389" t="s">
         <v>279</v>
       </c>
@@ -5451,7 +5335,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>292</v>
+      </c>
       <c r="B390" t="s">
         <v>279</v>
       </c>
@@ -5459,7 +5346,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>292</v>
+      </c>
       <c r="B391" t="s">
         <v>279</v>
       </c>
@@ -5467,7 +5357,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>292</v>
+      </c>
       <c r="B392" t="s">
         <v>279</v>
       </c>
@@ -5475,7 +5368,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>292</v>
+      </c>
       <c r="B393" t="s">
         <v>279</v>
       </c>
@@ -5483,7 +5379,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>292</v>
+      </c>
       <c r="B394" t="s">
         <v>279</v>
       </c>
@@ -5491,7 +5390,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>292</v>
+      </c>
       <c r="B395" t="s">
         <v>279</v>
       </c>
@@ -5499,7 +5401,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>292</v>
+      </c>
       <c r="B396" t="s">
         <v>279</v>
       </c>
@@ -5507,7 +5412,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>292</v>
+      </c>
       <c r="B397" t="s">
         <v>279</v>
       </c>
@@ -5515,7 +5423,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>292</v>
+      </c>
       <c r="B398" t="s">
         <v>279</v>
       </c>
@@ -5523,7 +5434,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>292</v>
+      </c>
       <c r="B399" t="s">
         <v>279</v>
       </c>
@@ -5531,7 +5445,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>292</v>
+      </c>
       <c r="B400" t="s">
         <v>279</v>
       </c>
@@ -5539,7 +5456,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>292</v>
+      </c>
       <c r="B401" t="s">
         <v>279</v>
       </c>
@@ -5547,7 +5467,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>292</v>
+      </c>
       <c r="B402" t="s">
         <v>279</v>
       </c>
@@ -5555,7 +5478,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>292</v>
+      </c>
       <c r="B403" t="s">
         <v>279</v>
       </c>
@@ -5563,7 +5489,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>292</v>
+      </c>
       <c r="B404" t="s">
         <v>279</v>
       </c>
@@ -5571,7 +5500,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>292</v>
+      </c>
       <c r="B405" t="s">
         <v>279</v>
       </c>
@@ -5579,7 +5511,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>292</v>
+      </c>
       <c r="B406" t="s">
         <v>279</v>
       </c>
@@ -5587,7 +5522,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>292</v>
+      </c>
       <c r="B407" t="s">
         <v>279</v>
       </c>
@@ -5595,7 +5533,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>292</v>
+      </c>
       <c r="B408" t="s">
         <v>279</v>
       </c>
@@ -5603,7 +5544,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>292</v>
+      </c>
       <c r="B409" t="s">
         <v>279</v>
       </c>
@@ -5611,7 +5555,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>292</v>
+      </c>
       <c r="B410" t="s">
         <v>279</v>
       </c>
@@ -5619,7 +5566,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>292</v>
+      </c>
       <c r="B411" t="s">
         <v>279</v>
       </c>
@@ -5627,7 +5577,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>292</v>
+      </c>
       <c r="B412" t="s">
         <v>279</v>
       </c>
@@ -5635,7 +5588,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>292</v>
+      </c>
       <c r="B413" t="s">
         <v>279</v>
       </c>
@@ -5643,7 +5599,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>292</v>
+      </c>
       <c r="B414" t="s">
         <v>279</v>
       </c>
@@ -5651,7 +5610,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>292</v>
+      </c>
       <c r="B415" t="s">
         <v>279</v>
       </c>
@@ -5659,7 +5621,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>292</v>
+      </c>
       <c r="B416" t="s">
         <v>279</v>
       </c>
@@ -5667,7 +5632,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>292</v>
+      </c>
       <c r="B417" t="s">
         <v>279</v>
       </c>
@@ -5675,7 +5643,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>292</v>
+      </c>
       <c r="B418" t="s">
         <v>279</v>
       </c>
@@ -5683,7 +5654,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>292</v>
+      </c>
       <c r="B419" t="s">
         <v>279</v>
       </c>
@@ -5691,7 +5665,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>292</v>
+      </c>
       <c r="B420" t="s">
         <v>279</v>
       </c>
@@ -5699,7 +5676,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>292</v>
+      </c>
       <c r="B421" t="s">
         <v>279</v>
       </c>
@@ -5707,7 +5687,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>292</v>
+      </c>
       <c r="B422" t="s">
         <v>279</v>
       </c>
@@ -5715,7 +5698,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>292</v>
+      </c>
       <c r="B423" t="s">
         <v>279</v>
       </c>
@@ -5723,7 +5709,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>292</v>
+      </c>
       <c r="B424" t="s">
         <v>279</v>
       </c>
@@ -5731,7 +5720,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>292</v>
+      </c>
       <c r="B425" t="s">
         <v>279</v>
       </c>
@@ -5739,7 +5731,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>292</v>
+      </c>
       <c r="B426" t="s">
         <v>279</v>
       </c>
@@ -5747,7 +5742,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>292</v>
+      </c>
       <c r="B427" t="s">
         <v>279</v>
       </c>
@@ -5755,7 +5753,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>292</v>
+      </c>
       <c r="B428" t="s">
         <v>279</v>
       </c>
@@ -5763,7 +5764,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>292</v>
+      </c>
       <c r="B429" t="s">
         <v>279</v>
       </c>
@@ -5771,7 +5775,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>292</v>
+      </c>
       <c r="B430" t="s">
         <v>279</v>
       </c>
@@ -5779,7 +5786,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>292</v>
+      </c>
       <c r="B431" t="s">
         <v>279</v>
       </c>
@@ -5787,7 +5797,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>292</v>
+      </c>
       <c r="B432" t="s">
         <v>279</v>
       </c>
@@ -5795,7 +5808,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>292</v>
+      </c>
       <c r="B433" t="s">
         <v>279</v>
       </c>
@@ -5803,7 +5819,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>292</v>
+      </c>
       <c r="B434" t="s">
         <v>279</v>
       </c>
@@ -5811,7 +5830,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>292</v>
+      </c>
       <c r="B435" t="s">
         <v>279</v>
       </c>
@@ -5819,7 +5841,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>292</v>
+      </c>
       <c r="B436" t="s">
         <v>279</v>
       </c>
@@ -5827,7 +5852,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>292</v>
+      </c>
       <c r="B437" t="s">
         <v>279</v>
       </c>
@@ -5835,7 +5863,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>292</v>
+      </c>
       <c r="B438" t="s">
         <v>279</v>
       </c>
@@ -5843,7 +5874,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>292</v>
+      </c>
       <c r="B439" t="s">
         <v>279</v>
       </c>
@@ -5851,7 +5885,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>292</v>
+      </c>
       <c r="B440" t="s">
         <v>279</v>
       </c>
@@ -5859,7 +5896,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>292</v>
+      </c>
       <c r="B441" t="s">
         <v>279</v>
       </c>
@@ -5867,7 +5907,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>292</v>
+      </c>
       <c r="B442" t="s">
         <v>279</v>
       </c>
@@ -5875,7 +5918,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>292</v>
+      </c>
       <c r="B443" t="s">
         <v>279</v>
       </c>
@@ -5883,7 +5929,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>292</v>
+      </c>
       <c r="B444" t="s">
         <v>279</v>
       </c>
@@ -5891,7 +5940,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>292</v>
+      </c>
       <c r="B445" t="s">
         <v>279</v>
       </c>
@@ -5899,7 +5951,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>292</v>
+      </c>
       <c r="B446" t="s">
         <v>279</v>
       </c>
@@ -5907,7 +5962,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>292</v>
+      </c>
       <c r="B447" t="s">
         <v>279</v>
       </c>
@@ -5915,7 +5973,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>292</v>
+      </c>
       <c r="B448" t="s">
         <v>279</v>
       </c>
@@ -5923,7 +5984,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="449" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>292</v>
+      </c>
       <c r="B449" t="s">
         <v>279</v>
       </c>
@@ -5931,7 +5995,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="450" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>292</v>
+      </c>
       <c r="B450" t="s">
         <v>279</v>
       </c>
@@ -5939,7 +6006,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="451" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>292</v>
+      </c>
       <c r="B451" t="s">
         <v>279</v>
       </c>
@@ -5947,7 +6017,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="452" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>292</v>
+      </c>
       <c r="B452" t="s">
         <v>279</v>
       </c>
@@ -5955,7 +6028,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>292</v>
+      </c>
       <c r="B453" t="s">
         <v>279</v>
       </c>
@@ -5963,7 +6039,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="454" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>292</v>
+      </c>
       <c r="B454" t="s">
         <v>279</v>
       </c>
@@ -5971,37 +6050,55 @@
         <v>284</v>
       </c>
     </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>292</v>
+      </c>
       <c r="B455" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="456" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>292</v>
+      </c>
       <c r="B456" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>292</v>
+      </c>
       <c r="B457" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>292</v>
+      </c>
       <c r="B458" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>292</v>
+      </c>
       <c r="B459" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>292</v>
+      </c>
       <c r="B460" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>